--- a/biology/Zoologie/Huffmanela_lata/Huffmanela_lata.xlsx
+++ b/biology/Zoologie/Huffmanela_lata/Huffmanela_lata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Huffmanela lata est une espèce de nématodes qui parasite la peau des requins de l'espèce Carcharhinus amblyrhynchos au large de la Nouvelle-Calédonie.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme cela est souvent le cas pour les espèces du genre Huffmanela, cette espèce a été décrite seulement à partir des œufs, et les adultes ne sont pas connus[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme cela est souvent le cas pour les espèces du genre Huffmanela, cette espèce a été décrite seulement à partir des œufs, et les adultes ne sont pas connus. 
 Les œufs sont longs de 77–88 µm (moyenne 84) et larges de 52–63 µm (moyenne 57), avec une coque épaisse (6–8 µm) apparemment épineuse. Des larves mobiles, longues de 200–250 µm, sont visibles dans les œufs. 
-Le nom de l'espèce (lata) a été donné en référence à la coque des œufs qui est particulièrement épaisse par rapport aux autres espèces du genre[1].
-L'espèce a été trouvée une seule fois en 2004[1], et plus jamais depuis.
+Le nom de l'espèce (lata) a été donné en référence à la coque des œufs qui est particulièrement épaisse par rapport aux autres espèces du genre.
+L'espèce a été trouvée une seule fois en 2004, et plus jamais depuis.
 </t>
         </is>
       </c>
